--- a/23秋季学期班级分布表.xlsx
+++ b/23秋季学期班级分布表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="10800"/>
+    <workbookView windowWidth="21495" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>三河职教中心北教学楼平面图</t>
   </si>
@@ -27,6 +27,31 @@
     <t>厕所</t>
   </si>
   <si>
+    <t>2404
+23平面设计3班
+孙金波</t>
+  </si>
+  <si>
+    <t>2406
+23数字媒体技术应用班
+刘旭</t>
+  </si>
+  <si>
+    <t>2408
+23平面设计2班
+白云太</t>
+  </si>
+  <si>
+    <t>2410
+23电子商务班
+杨晴</t>
+  </si>
+  <si>
+    <t>2412
+23多媒体制作班
+张雪莹</t>
+  </si>
+  <si>
     <t>楼道</t>
   </si>
   <si>
@@ -36,64 +61,99 @@
     <t>楼梯</t>
   </si>
   <si>
+    <t>2403
+23网络信息安全2班
+李佳展</t>
+  </si>
+  <si>
+    <t>2405
+23网络信息安全1班
+吕春雷</t>
+  </si>
+  <si>
+    <t>2407
+23平面设计4班
+周龙凯</t>
+  </si>
+  <si>
+    <t>2409
+23平面设计1班 
+杨晴（教官）</t>
+  </si>
+  <si>
     <t>2308                
-22网安2班  郭晗</t>
+22网安2班
+郭晗</t>
   </si>
   <si>
     <t>2310                 
-22网安1班  贾红霞</t>
+22网安1班
+贾红霞</t>
   </si>
   <si>
     <t>2312                  
-22电子商务一班  张雪莹</t>
+22电子商务一班
+张雪莹</t>
   </si>
   <si>
     <t>2303                
-22平面设计2班 周佳宁</t>
+22平面设计2班
+周佳宁</t>
   </si>
   <si>
     <t>2305                 
-22平面设计1班  刘帅</t>
+22平面设计1班
+刘帅</t>
   </si>
   <si>
     <t>2307                
-22平面设计3班  刘秀艳</t>
+22平面设计3班
+刘秀艳</t>
   </si>
   <si>
     <t>2309                 
-21平面设计3+2班  刘秀艳</t>
+21平面设计3+2班
+刘秀艳</t>
   </si>
   <si>
     <t>2311                 
-22电子商务二班  吕怀秀</t>
+22电子商务二班
+吕怀秀</t>
   </si>
   <si>
     <t xml:space="preserve">2206                 
-22电子商务3班  贾硕丰 </t>
+22电子商务3班
+贾硕丰 </t>
   </si>
   <si>
     <t>2208                 
-22电子商务4班  白云太</t>
+22电子商务4班
+白云太</t>
   </si>
   <si>
     <t>2210                
-22多媒体二班  李连花</t>
+22多媒体二班
+李连花</t>
   </si>
   <si>
     <t>2201                
-22软件1班  刘旭</t>
+22软件1班
+刘旭</t>
   </si>
   <si>
     <t>2203                 
-22软件2班  孙金波</t>
+22软件2班
+孙金波</t>
   </si>
   <si>
     <t>2205                   
-22多媒体3班  王建军</t>
+22多媒体3班
+王建军</t>
   </si>
   <si>
     <t>2207                 
-22多媒体一班  周龙凯</t>
+22多媒体一班
+周龙凯</t>
   </si>
   <si>
     <t>政教处</t>
@@ -110,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -145,6 +205,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -153,7 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,8 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +302,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -189,26 +334,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,77 +348,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,19 +382,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,49 +436,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,19 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,85 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +567,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -542,6 +587,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,48 +638,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,11 +658,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -915,12 +951,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1203,16 +1234,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1233,7 +1265,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.75" customHeight="1" spans="1:13">
+    <row r="1" ht="20" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1260,24 +1292,24 @@
       <c r="C2" s="3">
         <v>2402</v>
       </c>
-      <c r="D2" s="4">
-        <v>2404</v>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>2406</v>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="4">
-        <v>2408</v>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>2410</v>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>2412</v>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -1298,7 +1330,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1315,28 +1347,28 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>2401</v>
       </c>
-      <c r="D5" s="8">
-        <v>2403</v>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>2405</v>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>2407</v>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8">
-        <v>2409</v>
+      <c r="J5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
@@ -1359,7 +1391,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" ht="8" customHeight="1" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1393,15 +1425,15 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M8" s="11"/>
     </row>
@@ -1424,7 +1456,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1443,32 +1475,32 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11">
         <v>2301</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M11" s="11"/>
     </row>
@@ -1487,7 +1519,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" ht="9" customHeight="1" spans="1:13">
       <c r="A13" s="2"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1517,15 +1549,15 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16">
@@ -1552,7 +1584,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1571,26 +1603,26 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16">
@@ -1613,7 +1645,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" ht="9" customHeight="1" spans="1:13">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1636,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D20" s="23">
         <v>2102</v>
@@ -1659,7 +1691,7 @@
       </c>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" ht="32.4" customHeight="1" spans="1:17">
+    <row r="21" ht="8" customHeight="1" spans="1:17">
       <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1678,7 +1710,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="24" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1697,13 +1729,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D23" s="22">
         <v>2101</v>
@@ -1718,13 +1750,13 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" ht="29.4" customHeight="1" spans="1:13">
+    <row r="24" ht="8" customHeight="1" spans="1:13">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1816,14 +1848,14 @@
     <mergeCell ref="P9:Q10"/>
     <mergeCell ref="P15:Q16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1833,14 +1865,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1850,7 +1882,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/23秋季学期班级分布表.xlsx
+++ b/23秋季学期班级分布表.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="11370"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>三河职教中心北教学楼平面图</t>
   </si>
@@ -44,7 +57,7 @@
   <si>
     <t>2410
 23电子商务班
-杨晴</t>
+李佳展</t>
   </si>
   <si>
     <t>2412
@@ -61,13 +74,8 @@
     <t>楼梯</t>
   </si>
   <si>
-    <t>2403
-23网络信息安全2班
-李佳展</t>
-  </si>
-  <si>
     <t>2405
-23网络信息安全1班
+23网络信息安全班
 吕春雷</t>
   </si>
   <si>
@@ -93,26 +101,21 @@
   <si>
     <t>2312                  
 22电子商务一班
-张雪莹</t>
+周龙凯</t>
   </si>
   <si>
     <t>2303                
-22平面设计2班
-周佳宁</t>
+22平面设计二班
+李连花</t>
   </si>
   <si>
     <t>2305                 
-22平面设计1班
-刘帅</t>
+22平面设计一班
+葛俞珊</t>
   </si>
   <si>
     <t>2307                
 22平面设计3班
-刘秀艳</t>
-  </si>
-  <si>
-    <t>2309                 
-21平面设计3+2班
 刘秀艳</t>
   </si>
   <si>
@@ -168,12 +171,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -205,6 +208,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -214,6 +256,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -222,14 +272,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,42 +295,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -288,23 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,32 +317,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,19 +385,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,139 +511,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +570,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +618,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,32 +648,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,171 +667,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,56 +905,61 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1234,34 +1242,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.09166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.09259259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.90740740740741" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.37037037037037" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.1833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1851851851852" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.9083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.9074074074074" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="13.5416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5462962962963" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="13.3666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3703703703704" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.0916666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.0925925925926" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1355,20 +1362,18 @@
       <c r="C5" s="7">
         <v>2401</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
@@ -1406,7 +1411,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:13">
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1425,15 +1430,15 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="11"/>
     </row>
@@ -1484,23 +1489,21 @@
         <v>2301</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M11" s="11"/>
     </row>
@@ -1549,15 +1552,15 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16">
@@ -1610,19 +1613,19 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" s="16"/>
       <c r="L17" s="16">
@@ -1668,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="23">
         <v>2102</v>
@@ -1735,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="22">
         <v>2101</v>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -1855,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1863,7 +1866,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1872,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1880,7 +1883,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
